--- a/medicine/Enfance/Eugène_Achard/Eugène_Achard.xlsx
+++ b/medicine/Enfance/Eugène_Achard/Eugène_Achard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Achard</t>
+          <t>Eugène_Achard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Achard, né le 3 avril 1884[1] à La Chapelle-Agnon et mort le 26 décembre 1976 à Montréal, est un enseignant, écrivain, libraire-éditeur et bibliothécaire français ayant œuvré au Québec.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Achard, né le 3 avril 1884 à La Chapelle-Agnon et mort le 26 décembre 1976 à Montréal, est un enseignant, écrivain, libraire-éditeur et bibliothécaire français ayant œuvré au Québec.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Achard</t>
+          <t>Eugène_Achard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Achard entre chez les Frères maristes en 1898[2], à l’âge de 14 ans. Il prononce ses vœux[3]. Il prend le nom en religion de frère Louis-Marius[4]. En 1901, il obtient un brevet d'enseignement primaire français[1] et se consacre à l'enseignement primaire[2].
-À la suite de la promulgation en France des « lois Combes », qui interdisent aux congrégations d'enseigner, il s'établit au Québec en 1903[2]. Il enseigne d'abord pendant un an (année scolaire 1904-1905) au collège Saint-Joseph de Granby[4]. En 1906, il obtient un diplôme d'enseignement de la Province de Québec[1]. Il enseigne à l'école d'Iberville[5], puis il en devient directeur[3]. Tout en exerçant son métier d'enseignant, il fait des études de pédagogie à l'université de Montréal[2] et obtient en 1911 son diplôme moderne de pédagogie, lettres et philosophie[1]. Il fait un séjour d'études en France et obtient, en 1920, un baccalauréat ès lettres de l’université de Lille[1]. Il rédige plusieurs ouvrages scolaires, en particulier des manuels de géographie, pour le compte des Frères maristes[2].
-Il est atteint par la grippe espagnole[3]. En 1920, il est atteint de surdité partielle[6]. En décembre 1924, il est relevé de ses vœux de religion et il quitte l’enseignement[4]. En 1926, il épouse Marie Bouchard[7]. Il se lance dans l’écriture[3]. Il est l'auteur de plus d'une centaine d'ouvrages[8], en grande partie de la littérature d'enfance et de jeunesse, incluant des nouvelles, feuilletons et quelques romans[7]. Il est surtout connu pour ses récits, contes et légendes, qu'il rassemble en plusieurs recueils[7].
-Il est fondateur des revues pédagogiques L'École canadienne en 1925[9], La Ruche écolière en 1927, devenue en 1931 La Ruche littéraire, et L'École primaire en 1930[1]. Laforce (2013) offre un survol des diverses entreprises d'Achard et en conclut que « l'activité d'Eugène Achard dans le monde du périodique pédagogique s'intègre dans une vaste entreprise de l'imprimé qui se structure autour de la Librairie générale canadienne »[9]. De 1930 à 1935, il occupe le poste de directeur adjoint de la Bibliothèque municipale de Montréal et crée la salle des documents publics, qu'il dirige jusqu'en 1955[7]. En 1934, il fonde les Éditions du Zodiaque, comme relève des Éditions de la Librairie générale canadienne[7],[10]. Il acquiert en 1960 une librairie, boulevard Saint-Laurent[Note 1], à Montréal, et tient lui-même son magasin jusqu'à sa mort accidentelle le 26 décembre 1976, à Montréal[1]. Il est membre fondateur de la Société des écrivains canadiens, de la Société des écrivains canadiens pour la jeunesse et de la Société des éditeurs canadiens[7] et il participe à l'Association des éditeurs canadiens du livre français[1].
-Victor-Lévy Beaulieu est d'avis qu'Eugène Achard, comme conteur, révolutionna le merveilleux québécois en y intégrant la mythologie amérindienne, les sorcières sympathiques et «la poétique sociale»[6].
-La rue Eugène-Achard, à Montréal, et, depuis 2006, la rue Eugène-Achard, à Québec[2], portent son nom. Un fonds Eugène-Archard est conservé à Bibliothèque et Archives nationales du Québec[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Achard entre chez les Frères maristes en 1898, à l’âge de 14 ans. Il prononce ses vœux. Il prend le nom en religion de frère Louis-Marius. En 1901, il obtient un brevet d'enseignement primaire français et se consacre à l'enseignement primaire.
+À la suite de la promulgation en France des « lois Combes », qui interdisent aux congrégations d'enseigner, il s'établit au Québec en 1903. Il enseigne d'abord pendant un an (année scolaire 1904-1905) au collège Saint-Joseph de Granby. En 1906, il obtient un diplôme d'enseignement de la Province de Québec. Il enseigne à l'école d'Iberville, puis il en devient directeur. Tout en exerçant son métier d'enseignant, il fait des études de pédagogie à l'université de Montréal et obtient en 1911 son diplôme moderne de pédagogie, lettres et philosophie. Il fait un séjour d'études en France et obtient, en 1920, un baccalauréat ès lettres de l’université de Lille. Il rédige plusieurs ouvrages scolaires, en particulier des manuels de géographie, pour le compte des Frères maristes.
+Il est atteint par la grippe espagnole. En 1920, il est atteint de surdité partielle. En décembre 1924, il est relevé de ses vœux de religion et il quitte l’enseignement. En 1926, il épouse Marie Bouchard. Il se lance dans l’écriture. Il est l'auteur de plus d'une centaine d'ouvrages, en grande partie de la littérature d'enfance et de jeunesse, incluant des nouvelles, feuilletons et quelques romans. Il est surtout connu pour ses récits, contes et légendes, qu'il rassemble en plusieurs recueils.
+Il est fondateur des revues pédagogiques L'École canadienne en 1925, La Ruche écolière en 1927, devenue en 1931 La Ruche littéraire, et L'École primaire en 1930. Laforce (2013) offre un survol des diverses entreprises d'Achard et en conclut que « l'activité d'Eugène Achard dans le monde du périodique pédagogique s'intègre dans une vaste entreprise de l'imprimé qui se structure autour de la Librairie générale canadienne ». De 1930 à 1935, il occupe le poste de directeur adjoint de la Bibliothèque municipale de Montréal et crée la salle des documents publics, qu'il dirige jusqu'en 1955. En 1934, il fonde les Éditions du Zodiaque, comme relève des Éditions de la Librairie générale canadienne,. Il acquiert en 1960 une librairie, boulevard Saint-Laurent[Note 1], à Montréal, et tient lui-même son magasin jusqu'à sa mort accidentelle le 26 décembre 1976, à Montréal. Il est membre fondateur de la Société des écrivains canadiens, de la Société des écrivains canadiens pour la jeunesse et de la Société des éditeurs canadiens et il participe à l'Association des éditeurs canadiens du livre français.
+Victor-Lévy Beaulieu est d'avis qu'Eugène Achard, comme conteur, révolutionna le merveilleux québécois en y intégrant la mythologie amérindienne, les sorcières sympathiques et «la poétique sociale».
+La rue Eugène-Achard, à Montréal, et, depuis 2006, la rue Eugène-Achard, à Québec, portent son nom. Un fonds Eugène-Archard est conservé à Bibliothèque et Archives nationales du Québec.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Achard</t>
+          <t>Eugène_Achard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,47 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf indication contraire, publication aux éditions de La Librairie générale canadienne, Montréal.
-Romans
-Le Trésor de l'Île-aux-Noix : roman canadien, Montréal, Beauchemin, 1925
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf indication contraire, publication aux éditions de La Librairie générale canadienne, Montréal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Trésor de l'Île-aux-Noix : roman canadien, Montréal, Beauchemin, 1925
 La Fin d'un traître : épisode de la révolte de 1837, Montréal, Bibliothèque de l'Action française, 1926
 Le Calvaire du repentir : ciné-roman, 1929
 Les Chercheurs d'or des Rocheuses, 1929
@@ -610,9 +660,43 @@
 La Belle Histoire de Blondine, 1954
 Le Vainqueur du rodéo, 1956
 Le Corsaire au gant de fer, 1957
-Le Retour de l'Oiseau-Mouche, 1959
-Recueils de contes ou nouvelles
-Aux quatre coins des routes canadiennes, Montréal, LGC, 1921
+Le Retour de l'Oiseau-Mouche, 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de contes ou nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aux quatre coins des routes canadiennes, Montréal, LGC, 1921
 Au bord du Richelieu, Montréal, Beauchemin, 1925
 L'Érable enchanté : récits et légendes, Montréal, Éditions Albert Lévesque : Librairie d'Action canadienne française limitée, 1932
 Les Contes du Richelieu, 1940
@@ -644,17 +728,119 @@
 La Lotion de maman et autres contes, 1955
 L'Oiseau vert et la princesse fortunée : (d'après un conte oriental), 1956
 Les Contes de l'aigle d'or, 1957
-Contes, légendes et récits d'Eugène Achard, Trois-Pistoles, Éditions Trois-Pistoles, 2012 (Anthologie posthume)
-Biographies
-Georges VI, roi du Canada, 1942
-Elisabeth II, reine du Canada, 1955
-Ouvrages historiques
-Ceux qui régissent le monde, 1942
+Contes, légendes et récits d'Eugène Achard, Trois-Pistoles, Éditions Trois-Pistoles, 2012 (Anthologie posthume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Georges VI, roi du Canada, 1942
+Elisabeth II, reine du Canada, 1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages historiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ceux qui régissent le monde, 1942
 Pionniers et découvreurs, 1958
 Aux temps héroïques du Canada, 1959
-Ceux qui firent Montréal, 1959
-Autres publications
-Aux jardins du Richelieu, 1942
+Ceux qui firent Montréal, 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux jardins du Richelieu, 1942
 L'Histoire du drapeau canadien, 1944
 Le Mississipi, père des eaux, 1946
 Sur le grand fleuve de Canada, 1956
@@ -665,31 +851,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eug%C3%A8ne_Achard</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eugène_Achard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Achard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Une rue a été nommée en son honneur dans la ville de Québec.</t>
         </is>
